--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdurant\Documents\GitHub\RFPFinder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdurant\Documents\GitHub\RFPFinder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4278089-0C51-4E42-B080-392A8E1843BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5202D278-51BC-48BE-9AE3-15F59EB895CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="1185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6615" yWindow="1185" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdurant\Documents\GitHub\RFPFinder\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdurant\Documents\GitHub\RFPFinder\extra_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5202D278-51BC-48BE-9AE3-15F59EB895CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D378CA-D54B-4D33-9A54-E704522565C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="1185" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="1395" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
     <sheet name="PDF Downloads" sheetId="2" r:id="rId2"/>
+    <sheet name="FBO FTP Access" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Time</t>
   </si>
@@ -33,6 +34,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Has New Data</t>
   </si>
 </sst>
 </file>
@@ -414,13 +418,13 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,4 +474,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49C3AE7-F899-4D06-B401-C6A5CC3AE454}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -1,102 +1,504 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdurant\Documents\GitHub\RFPFinder\extra_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B5C94-DCB7-44BD-981B-9EEB647B6881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1830" windowWidth="21600" windowHeight="11400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11400" windowWidth="21600" xWindow="1515" yWindow="1830"/>
   </bookViews>
   <sheets>
-    <sheet name="Runs" sheetId="1" r:id="rId1"/>
-    <sheet name="PDF Downloads" sheetId="2" r:id="rId2"/>
-    <sheet name="Excel Downloads" sheetId="7" r:id="rId3"/>
-    <sheet name="Created Folder" sheetId="6" r:id="rId4"/>
-    <sheet name="FBO FTP Access" sheetId="3" r:id="rId5"/>
-    <sheet name="AEP" sheetId="5" r:id="rId6"/>
-    <sheet name="NY Rev Connect" sheetId="4" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Runs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PDF Downloads" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Excel Downloads" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Created Folder" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FBO FTP Access" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AEP" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NY Rev Connect" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+  <si>
+    <t>Time Run</t>
+  </si>
   <si>
     <t>Change Type</t>
   </si>
   <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Time Saved</t>
+  </si>
+  <si>
     <t>PDF Name</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
+    <t>PDF Download</t>
+  </si>
+  <si>
+    <t>News_Release.pdf</t>
+  </si>
+  <si>
+    <t>/AEP/Appalachian Power/2019 Solar Energy RFP</t>
+  </si>
+  <si>
+    <t>Q&amp;A.pdf</t>
+  </si>
+  <si>
+    <t>/AEP/Kentucky Power/2018 Kentucky Solar Energy RFP</t>
+  </si>
+  <si>
+    <t>2018_Kentucky_Solar_RFP.pdf</t>
+  </si>
+  <si>
+    <t>Q&amp;A_#2.pdf</t>
+  </si>
+  <si>
+    <t>Q&amp;A_#3.pdf</t>
+  </si>
+  <si>
+    <t>Q&amp;A_#4.pdf</t>
+  </si>
+  <si>
+    <t>Q&amp;A_#5.pdf</t>
+  </si>
+  <si>
+    <t>Q&amp;A_#6.pdf</t>
+  </si>
+  <si>
+    <t>/AEP/Public Service Company of Oklahoma/2019 PSO Wind Energy RFP</t>
+  </si>
+  <si>
+    <t>PSO_Wind_RFP_.pdf</t>
+  </si>
+  <si>
+    <t>RFP_Questions_and_Answers_.pdf</t>
+  </si>
+  <si>
+    <t>/AEP/Southwestern Electric Power Company/2019 SWEPCO Wind Energy RFP</t>
+  </si>
+  <si>
+    <t>SWEPCO_Wind_RFP_.pdf</t>
+  </si>
+  <si>
+    <t>Bidders_Conference_Presentation.pdf</t>
+  </si>
+  <si>
+    <t>rfq-2019-4.pdf</t>
+  </si>
+  <si>
+    <t>/Puerto Rico Government/puerto_rico_government_pdfs</t>
+  </si>
+  <si>
+    <t>public-notice-app-rfq-2019-4.pdf</t>
+  </si>
+  <si>
+    <t>hyrdroelectric-power-plant-rfq-addendum-2.pdf</t>
+  </si>
+  <si>
+    <t>hyrdroelectric-power-plant-rfq-addendum-1.pdf</t>
+  </si>
+  <si>
+    <t>p3a-generation-peakers-rfq.pdf</t>
+  </si>
+  <si>
+    <t>p3a-generation-hydro-rfq.pdf</t>
+  </si>
+  <si>
+    <t>rfq-2019-3-p3a-flexible-distributed-generation-units.pdf</t>
+  </si>
+  <si>
+    <t>rfq-2019-2-p3a-generation-hydro.pdf</t>
+  </si>
+  <si>
+    <t>public-notice-app-rfq-2019-2.pdf</t>
+  </si>
+  <si>
+    <t>p3a-act-120-regulations-eng.pdf</t>
+  </si>
+  <si>
+    <t>p3a-act-120-regulations-spa.pdf</t>
+  </si>
+  <si>
+    <t>p3a-respon-rfcs-2018-11-20.pdf</t>
+  </si>
+  <si>
+    <t>p3a-rfq-2018-2-td-system-project.pdf</t>
+  </si>
+  <si>
+    <t>aviso-publico-app-rfq-october-2018-fc.pdf</t>
+  </si>
+  <si>
+    <t>prepa-market-sounding-2018-06-01.pdf</t>
+  </si>
+  <si>
+    <t>market-sounding-process-letter-2018-06-01.pdf</t>
+  </si>
+  <si>
+    <t>RFP.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/NY Rev Connect/ConEdison/ Newtown Energy Storage Project </t>
+  </si>
+  <si>
+    <t>Clarification_Question_Responses.pdf</t>
+  </si>
+  <si>
+    <t>Questionnaire_&amp;_Cash_Flow_Template.pdf</t>
+  </si>
+  <si>
+    <t>/NY Rev Connect/ConEdison/Water Street  Plymouth Street Energy Storage Project</t>
+  </si>
+  <si>
+    <t>/NY Rev Connect/ConEdison/Newtown Transformer Installation Project</t>
+  </si>
+  <si>
+    <t>/NY Rev Connect/ConEdison/Primary Feeder Relief - Williamsburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/NY Rev Connect/ConEdison/Water Street Cooling Project </t>
+  </si>
+  <si>
+    <t>/NY Rev Connect/ConEdison/Plymouth Street Cooling Project</t>
+  </si>
+  <si>
+    <t>/NY Rev Connect/Orange &amp; Rockland/Monsey</t>
+  </si>
+  <si>
+    <t>Pre-bid_Conference_Presentation.pdf</t>
+  </si>
+  <si>
+    <t>Responses_to_Clarification_Questions.pdf</t>
+  </si>
+  <si>
+    <t>/NY Rev Connect/Orange &amp; Rockland/Pomona</t>
+  </si>
+  <si>
+    <t>Webinar_Presentation_Slides.pdf</t>
+  </si>
+  <si>
+    <t>/NY Rev Connect/Orange &amp; Rockland/West Haverstraw</t>
+  </si>
+  <si>
+    <t>Pre-bid_Conference_Presentation_(ppt).pdf</t>
+  </si>
+  <si>
+    <t>/NY Rev Connect/Orange &amp; Rockland/Blooming Grove</t>
+  </si>
+  <si>
+    <t>Project_Description.pdf</t>
+  </si>
+  <si>
+    <t>/NY Rev Connect/Orange &amp; Rockland/West Warwick</t>
+  </si>
+  <si>
+    <t>/NY Rev Connect/Orange &amp; Rockland/Mountain Lodge Park</t>
+  </si>
+  <si>
+    <t>Excel Name</t>
+  </si>
+  <si>
+    <t>Excel Download</t>
+  </si>
+  <si>
+    <t>Questionnaire_(xls).xlsx</t>
+  </si>
+  <si>
+    <t>Hourly_NWA_Capacity_Need_(xls).xlsx</t>
+  </si>
+  <si>
+    <t>Time Created</t>
+  </si>
+  <si>
+    <t>Folder Location</t>
+  </si>
+  <si>
+    <t>/data/AEP</t>
+  </si>
+  <si>
+    <t>/data/Puerto Rico Government</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect</t>
+  </si>
+  <si>
+    <t>/data/San Diego Gas and Electric</t>
+  </si>
+  <si>
+    <t>/data/FBO/daily_message</t>
+  </si>
+  <si>
+    <t>/data/AEP/AEP Ohio</t>
+  </si>
+  <si>
+    <t>/data/AEP/AEP Texas</t>
+  </si>
+  <si>
+    <t>/data/AEP/Appalachian Power</t>
+  </si>
+  <si>
+    <t>/data/AEP/Appalachian Power/2019 Solar Energy RFP</t>
+  </si>
+  <si>
+    <t>/data/AEP/Indiana Michigan</t>
+  </si>
+  <si>
+    <t>/data/AEP/Kentucky Power</t>
+  </si>
+  <si>
+    <t>/data/AEP/Kentucky Power/2018 Kentucky Solar Energy RFP</t>
+  </si>
+  <si>
+    <t>/data/AEP/Public Service Company of Oklahoma</t>
+  </si>
+  <si>
+    <t>/data/AEP/Public Service Company of Oklahoma/2019 PSO Wind Energy RFP</t>
+  </si>
+  <si>
+    <t>/data/AEP/Southwestern Electric Power Company</t>
+  </si>
+  <si>
+    <t>/data/AEP/Southwestern Electric Power Company/2019 SWEPCO Wind Energy RFP</t>
+  </si>
+  <si>
+    <t>/data/Puerto Rico Government/puerto_rico_government_pdfs</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/Central Hudson</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/ConEdison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/data/NY Rev Connect/ConEdison/ Newtown Energy Storage Project </t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/ConEdison/Water Street  Plymouth Street Energy Storage Project</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/ConEdison/Newtown Transformer Installation Project</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/ConEdison/Primary Feeder Relief - Williamsburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/data/NY Rev Connect/ConEdison/Water Street Cooling Project </t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/ConEdison/Plymouth Street Cooling Project</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/NationalGrid</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/NationalGrid/DO NOT EDIT (soup files -- test env only)</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/Orange &amp; Rockland</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/Orange &amp; Rockland/Monsey</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/Orange &amp; Rockland/Pomona</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/Orange &amp; Rockland/West Haverstraw</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/Orange &amp; Rockland/Blooming Grove</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/Orange &amp; Rockland/West Warwick</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/Orange &amp; Rockland/Mountain Lodge Park</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/NYSGE</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/NYSGE/Java 2nd Transformer and 12 kV Conversion - NWA RFP in Progress</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/NYSGE/New Gardenville Substation - Add 3rd 230115 kV Transformer - NWA RFP in Progress</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/NYSGE/Stillwater Substation - Upgrade Transformer to 14 MVA - NWA RFP in Progress</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/NYSGE/Lansing Non-Pipes Alternatives</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/RG &amp; E</t>
+  </si>
+  <si>
+    <t>/data/NY Rev Connect/RG &amp; E/Station 51 Transformerfacilities upgrade and secondary source addition</t>
+  </si>
+  <si>
+    <t>Time Run For (2d behind)</t>
+  </si>
+  <si>
     <t>Has New Data</t>
   </si>
   <si>
+    <t>FTP Access</t>
+  </si>
+  <si>
+    <t>Area Location</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>New Area Folder</t>
+  </si>
+  <si>
+    <t>AEP Ohio</t>
+  </si>
+  <si>
+    <t>Folder was created to store RFP folders and their information for the area</t>
+  </si>
+  <si>
+    <t>AEP Texas</t>
+  </si>
+  <si>
+    <t>Appalachian Power</t>
+  </si>
+  <si>
+    <t>New RFP Folder</t>
+  </si>
+  <si>
+    <t>2019 Solar Energy RFP</t>
+  </si>
+  <si>
+    <t>Folder was created to store information and documents important to the RFP</t>
+  </si>
+  <si>
+    <t>Indiana Michigan</t>
+  </si>
+  <si>
+    <t>Kentucky Power</t>
+  </si>
+  <si>
+    <t>2018 Kentucky Solar Energy RFP</t>
+  </si>
+  <si>
+    <t>Public Service Company of Oklahoma</t>
+  </si>
+  <si>
+    <t>2019 PSO Wind Energy RFP</t>
+  </si>
+  <si>
+    <t>Southwestern Electric Power Company</t>
+  </si>
+  <si>
+    <t>2019 SWEPCO Wind Energy RFP</t>
+  </si>
+  <si>
     <t>Sector</t>
   </si>
   <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Time Run For (2d behind)</t>
-  </si>
-  <si>
-    <t>Time Run</t>
-  </si>
-  <si>
-    <t>Time Saved</t>
-  </si>
-  <si>
-    <t>Time Created</t>
-  </si>
-  <si>
-    <t>Folder Location</t>
-  </si>
-  <si>
-    <t>Area Location</t>
-  </si>
-  <si>
-    <t>Excel Name</t>
+    <t>Central Hudson</t>
+  </si>
+  <si>
+    <t>Created Non Wire Alternative Opportunities Excel</t>
+  </si>
+  <si>
+    <t>ConEdison</t>
+  </si>
+  <si>
+    <t>NationalGrid</t>
+  </si>
+  <si>
+    <t>Created folder to store soup objects to compare later</t>
+  </si>
+  <si>
+    <t>First national grid soup file created</t>
+  </si>
+  <si>
+    <t>Orange &amp; Rockland</t>
+  </si>
+  <si>
+    <t>New RFP folder added: Monsey</t>
+  </si>
+  <si>
+    <t>New RFP folder added: Pomona</t>
+  </si>
+  <si>
+    <t>New RFP folder added: West Haverstraw</t>
+  </si>
+  <si>
+    <t>New RFP folder added: Blooming Grove</t>
+  </si>
+  <si>
+    <t>New RFP folder added: West Warwick</t>
+  </si>
+  <si>
+    <t>New RFP folder added: Mountain Lodge Park</t>
+  </si>
+  <si>
+    <t>NYSGE</t>
+  </si>
+  <si>
+    <t>New RFP folder added: Java 2nd Transformer and 12 kV Conversion - NWA RFP in Progress</t>
+  </si>
+  <si>
+    <t>New RFP folder added: New Gardenville Substation - Add 3rd 230115 kV Transformer - NWA RFP in Progress</t>
+  </si>
+  <si>
+    <t>New RFP folder added: Stillwater Substation - Upgrade Transformer to 14 MVA - NWA RFP in Progress</t>
+  </si>
+  <si>
+    <t>New RFP folder added: Lansing Non-Pipes Alternatives</t>
+  </si>
+  <si>
+    <t>RG &amp; E</t>
+  </si>
+  <si>
+    <t>New RFP folder added: Station 51 Transformerfacilities upgrade and secondary source addition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -127,34 +529,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -442,225 +836,2419 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="9.28515625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="12.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="n">
+        <v>43664.77841310315</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="n">
+        <v>43664.78878389554</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="n">
+        <v>43664.79079871463</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="n">
+        <v>43664.79367050561</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="n">
+        <v>43664.79401458925</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="11.140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="12.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="10.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="n">
+        <v>43664.77881665068</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="n">
+        <v>43664.77886339714</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="n">
+        <v>43664.77893724488</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="n">
+        <v>43664.7789486599</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="n">
+        <v>43664.77895737621</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="n">
+        <v>43664.77896646772</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="n">
+        <v>43664.7789743639</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="n">
+        <v>43664.77898043118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="n">
+        <v>43664.77898632061</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="n">
+        <v>43664.77899261416</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="n">
+        <v>43664.77906288589</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="n">
+        <v>43664.77911646206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="n">
+        <v>43664.77916285207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="n">
+        <v>43664.77923741982</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="n">
+        <v>43664.77928662577</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="n">
+        <v>43664.7793335416</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="n">
+        <v>43664.77939385232</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="n">
+        <v>43664.77957654282</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="n">
+        <v>43664.77976172964</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="n">
+        <v>43664.77982200526</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="n">
+        <v>43664.77986597669</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="n">
+        <v>43664.77993552164</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="n">
+        <v>43664.7799992761</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="n">
+        <v>43664.78006263462</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="n">
+        <v>43664.78017135861</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="n">
+        <v>43664.78042052439</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="n">
+        <v>43664.78049321836</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="n">
+        <v>43664.78064410482</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="n">
+        <v>43664.78070358505</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="n">
+        <v>43664.78074770507</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="n">
+        <v>43664.7809097514</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="n">
+        <v>43664.78098899547</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="n">
+        <v>43664.78102668159</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="n">
+        <v>43664.78109236906</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="n">
+        <v>43664.7811118516</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="n">
+        <v>43664.78114342311</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="n">
+        <v>43664.78117295646</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="n">
+        <v>43664.7812096294</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5" t="n">
+        <v>43664.78123686152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5" t="n">
+        <v>43664.78126369991</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5" t="n">
+        <v>43664.78129110374</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5" t="n">
+        <v>43664.78134004938</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5" t="n">
+        <v>43664.7813575858</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5" t="n">
+        <v>43664.78136741203</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5" t="n">
+        <v>43664.78139714971</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="n">
+        <v>43664.78141194367</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5" t="n">
+        <v>43664.78142510712</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5" t="n">
+        <v>43664.78145546763</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="n">
+        <v>43664.78147342301</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5" t="n">
+        <v>43664.78148455379</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5" t="n">
+        <v>43664.78151754093</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5" t="n">
+        <v>43664.78153651618</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="n">
+        <v>43664.78154814481</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="n">
+        <v>43664.78158635581</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="n">
+        <v>43664.78159499793</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="n">
+        <v>43664.79444428519</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="n">
+        <v>43664.79449222893</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="n">
+        <v>43664.79456324552</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="n">
+        <v>43664.79457372869</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5" t="n">
+        <v>43664.7945825209</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="n">
+        <v>43664.79459042487</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5" t="n">
+        <v>43664.79459870397</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5" t="n">
+        <v>43664.79460450132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5" t="n">
+        <v>43664.79461329443</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5" t="n">
+        <v>43664.79461871949</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="5" t="n">
+        <v>43664.79469217166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="5" t="n">
+        <v>43664.79474146433</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="5" t="n">
+        <v>43664.79478924477</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5" t="n">
+        <v>43664.79487154497</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5" t="n">
+        <v>43664.79492689336</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5" t="n">
+        <v>43664.79497370008</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5" t="n">
+        <v>43664.79502491516</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F7F703-63A6-469C-A7C2-5E9357775835}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="11.140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="12.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="11.28515625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="n">
+        <v>43664.78137895231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="n">
+        <v>43664.78143373897</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="n">
+        <v>43664.78149435736</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="n">
+        <v>43664.78155665264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="n">
+        <v>43664.78157714693</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFBD6B-396C-4F03-A822-8A40067594B6}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="12.85546875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="14.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="n">
+        <v>43664.77826991537</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="n">
+        <v>43664.77827029462</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="n">
+        <v>43664.77827055037</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="n">
+        <v>43664.77827077071</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="n">
+        <v>43664.77870876022</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="n">
+        <v>43664.77870946292</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="n">
+        <v>43664.77873269258</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="n">
+        <v>43664.77874433362</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="n">
+        <v>43664.77877187567</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="n">
+        <v>43664.77886381416</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="n">
+        <v>43664.77888706472</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="n">
+        <v>43664.77892931298</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="n">
+        <v>43664.77899306896</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="n">
+        <v>43664.77901876023</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="n">
+        <v>43664.77916423241</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="n">
+        <v>43664.77919310784</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="n">
+        <v>43664.77941100204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="n">
+        <v>43664.78102709117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="n">
+        <v>43664.78104297977</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="n">
+        <v>43664.78106469346</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="n">
+        <v>43664.78114379899</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="n">
+        <v>43664.78117338302</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="n">
+        <v>43664.78121002334</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="n">
+        <v>43664.78123725201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="n">
+        <v>43664.78126407493</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="n">
+        <v>43664.78129153899</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="n">
+        <v>43664.78129227941</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="n">
+        <v>43664.78129754173</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="n">
+        <v>43664.78131885474</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="n">
+        <v>43664.78137938643</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="n">
+        <v>43664.78143417913</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="n">
+        <v>43664.78149488915</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="n">
+        <v>43664.78157761755</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="n">
+        <v>43664.78158678806</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="n">
+        <v>43664.78159550465</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="n">
+        <v>43664.78162282334</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="n">
+        <v>43664.78162371419</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="n">
+        <v>43664.78162455697</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="n">
+        <v>43664.78162551572</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="n">
+        <v>43664.78162664759</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="n">
+        <v>43664.78171449612</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="n">
+        <v>43664.79395927762</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="n">
+        <v>43664.79433433491</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="n">
+        <v>43664.79435805525</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="n">
+        <v>43664.79436886296</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="n">
+        <v>43664.79439884451</v>
+      </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="n">
+        <v>43664.79449273193</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="n">
+        <v>43664.79451536453</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="n">
+        <v>43664.79455592939</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="n">
+        <v>43664.79461922479</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="n">
+        <v>43664.79464779287</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="n">
+        <v>43664.79479237248</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="n">
+        <v>43664.79482795831</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49C3AE7-F899-4D06-B401-C6A5CC3AE454}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="9.28515625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="23.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="12.28515625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="13.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="n">
+        <v>43664.77870914292</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>43662.94537598743</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="n">
+        <v>43664.79433388859</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>43662.96100082351</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9988E834-2F78-4AB0-BE75-3F0634810BC4}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="9.28515625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="12.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="13.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="n">
+        <v>43664.77870971234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="n">
+        <v>43664.77873297357</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="n">
+        <v>43664.77874467059</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="n">
+        <v>43664.77877213096</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="n">
+        <v>43664.77886409147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="n">
+        <v>43664.77888732512</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="n">
+        <v>43664.77892957911</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="n">
+        <v>43664.77899358645</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="n">
+        <v>43664.77901909195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="n">
+        <v>43664.77916451763</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="n">
+        <v>43664.77919341985</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="n">
+        <v>43664.79433476259</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="n">
+        <v>43664.79435851098</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="n">
+        <v>43664.79436937736</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="n">
+        <v>43664.79439923092</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="n">
+        <v>43664.79449314596</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="n">
+        <v>43664.7945157994</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="n">
+        <v>43664.79455639523</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="n">
+        <v>43664.79461968074</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="n">
+        <v>43664.79464829014</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="n">
+        <v>43664.79479288229</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="n">
+        <v>43664.79482848239</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4350FDA5-B262-4E1A-A365-4B77F1CB32A3}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="9.28515625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="6.5703125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="n">
+        <v>43664.78102753434</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="n">
+        <v>43664.78104263149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="n">
+        <v>43664.7810434535</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="n">
+        <v>43664.78106501514</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="n">
+        <v>43664.78114413509</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="n">
+        <v>43664.78117375006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="n">
+        <v>43664.78121036168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="n">
+        <v>43664.78123758845</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="n">
+        <v>43664.78126448853</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="n">
+        <v>43664.78129187759</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="n">
+        <v>43664.78129270297</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="n">
+        <v>43664.78129712473</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="n">
+        <v>43664.78129813835</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="n">
+        <v>43664.78131922902</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="n">
+        <v>43664.7813802197</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="n">
+        <v>43664.78143454565</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="n">
+        <v>43664.78149535296</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="n">
+        <v>43664.78157809125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="n">
+        <v>43664.78158725803</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="n">
+        <v>43664.78159620839</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="n">
+        <v>43664.78162323109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="n">
+        <v>43664.7816241419</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="n">
+        <v>43664.78162501463</v>
+      </c>
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="n">
+        <v>43664.78162598083</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="n">
+        <v>43664.78162707589</v>
+      </c>
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="n">
+        <v>43664.7817153855</v>
+      </c>
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>